--- a/src/test/java/testData/LoginData.xlsx
+++ b/src/test/java/testData/LoginData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{48A83809-B41C-4823-BF23-D571DF8FE846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CD4528D-BF1E-4854-90BC-8DE568829028}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321FBDFD-AD58-40A7-A461-7521A5A9E939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,17 +62,17 @@
     <t>ugUgEgU</t>
   </si>
   <si>
-    <t>mngr543916</t>
-  </si>
-  <si>
-    <t>AtEvUrA</t>
+    <t>Student777</t>
+  </si>
+  <si>
+    <t>Password1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,16 +458,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="23.25">
+    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -484,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="23.25">
+    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -492,7 +491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="23.25">
+    <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -500,7 +499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="23.25">
+    <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -508,7 +507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="23.25">
+    <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
